--- a/biology/Médecine/Bazédoxifène/Bazédoxifène.xlsx
+++ b/biology/Médecine/Bazédoxifène/Bazédoxifène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baz%C3%A9doxif%C3%A8ne</t>
+          <t>Bazédoxifène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bazédoxifène est un médicament de la classe des modulateurs sélectifs du récepteur des œstrogènes, agissant « comme un agoniste au niveau de l’os et partiellement au niveau du métabolisme des lipides et comme un antagoniste au niveau des tissus mammaires et utérins. » Il s’utilise chez les femmes ménopausées pour diminuer le renouvellement osseux, augmentant la densité osseuse au niveau vertébral lombaire et permettant ainsi de diminuer les fractures vertébrales[3]. 
-Il a aussi été étudié comme traitement possible des cancers du sein et du pancréas[4]. C'est un membre du groupe des 2-phénylindoles des SERM (Selective estrogen receptor modulator (en)) comme le 
+Le bazédoxifène est un médicament de la classe des modulateurs sélectifs du récepteur des œstrogènes, agissant « comme un agoniste au niveau de l’os et partiellement au niveau du métabolisme des lipides et comme un antagoniste au niveau des tissus mammaires et utérins. » Il s’utilise chez les femmes ménopausées pour diminuer le renouvellement osseux, augmentant la densité osseuse au niveau vertébral lombaire et permettant ainsi de diminuer les fractures vertébrales. 
+Il a aussi été étudié comme traitement possible des cancers du sein et du pancréas. C'est un membre du groupe des 2-phénylindoles des SERM (Selective estrogen receptor modulator (en)) comme le 
 zindoxifène (en), le 
-pipendoxifène (en) ou le raloxifène[5].
+pipendoxifène (en) ou le raloxifène.
 </t>
         </is>
       </c>
